--- a/data/Properties_info.xlsx
+++ b/data/Properties_info.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fichtnergmbh-my.sharepoint.com/personal/flaizd_fis_fichtnergroup_com/Documents/Masterarbeit/Repository/Master-Thesis/OPTIMIZER/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{9736EA1E-F480-42C2-82BC-2A6E1E753514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC8F2D8C-A2F7-459A-91A0-AC020462C609}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{9736EA1E-F480-42C2-82BC-2A6E1E753514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCC76473-8AC1-49CD-957F-5635609E5497}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B51AB577-22E8-4532-B491-5B1100FF524D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,6 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -5586,16 +5591,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854D6833-0145-46C8-8F71-1990252AD800}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/Properties_info.xlsx
+++ b/data/Properties_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fichtnergmbh-my.sharepoint.com/personal/flaizd_fis_fichtnergroup_com/Documents/Masterarbeit/Repository/Master-Thesis/OPTIMIZER/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{9736EA1E-F480-42C2-82BC-2A6E1E753514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCC76473-8AC1-49CD-957F-5635609E5497}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{9736EA1E-F480-42C2-82BC-2A6E1E753514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3A8CCEF-430B-4DB1-BF45-8B20F7D37652}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B51AB577-22E8-4532-B491-5B1100FF524D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{B51AB577-22E8-4532-B491-5B1100FF524D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1157,8 +1157,8 @@
   <autoFilter ref="A7:G180" xr:uid="{0BBAEADF-3EFD-4611-B259-FD7CD4A0B17E}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Links"/>
-        <filter val="Loads"/>
+        <filter val="Carriers"/>
+        <filter val="Generators"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:N180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -1998,7 +1998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="33.6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>53</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
         <v>53</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>53</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>69</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>69</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>69</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>69</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>69</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>69</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>69</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>69</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="67.2" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="67.2" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
         <v>69</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="50.4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>69</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
         <v>69</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
         <v>69</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>69</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="33.6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>69</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
         <v>69</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
         <v>69</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="5" t="s">
         <v>69</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>69</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
         <v>69</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="33.6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
         <v>69</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
         <v>69</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
         <v>69</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="5" t="s">
         <v>69</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
         <v>69</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
         <v>69</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
         <v>69</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="33.6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A59" s="5" t="s">
         <v>69</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="33.6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A60" s="5" t="s">
         <v>69</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="33.6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>69</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="33.6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
         <v>69</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
         <v>69</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="33.6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
         <v>69</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
         <v>69</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
         <v>69</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
         <v>69</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
         <v>69</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="5" t="s">
         <v>69</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
         <v>69</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="5" t="s">
         <v>69</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="5" t="s">
         <v>69</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
         <v>170</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="5" t="s">
         <v>170</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="5" t="s">
         <v>170</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="5" t="s">
         <v>170</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="5" t="s">
         <v>170</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="5" t="s">
         <v>170</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" ht="33.6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5" t="s">
         <v>170</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
         <v>170</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5" t="s">
         <v>170</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="5" t="s">
         <v>170</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="5" t="s">
         <v>170</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5" t="s">
         <v>170</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
         <v>170</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="s">
         <v>170</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="5" t="s">
         <v>170</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="s">
         <v>170</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
         <v>170</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" ht="33.6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="5" t="s">
         <v>170</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="5" t="s">
         <v>170</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="5" t="s">
         <v>170</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" s="5" t="s">
         <v>170</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" s="5" t="s">
         <v>170</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" s="5" t="s">
         <v>170</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" s="5" t="s">
         <v>170</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" s="5" t="s">
         <v>170</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108" s="5" t="s">
         <v>170</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" s="5" t="s">
         <v>170</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" ht="33.6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" s="5" t="s">
         <v>170</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" ht="33.6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111" s="5" t="s">
         <v>170</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112" s="5" t="s">
         <v>170</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113" s="5" t="s">
         <v>170</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114" s="5" t="s">
         <v>170</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115" s="5" t="s">
         <v>170</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" s="5" t="s">
         <v>170</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117" s="5" t="s">
         <v>170</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" s="5" t="s">
         <v>170</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="s">
         <v>170</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" s="5" t="s">
         <v>170</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" s="5" t="s">
         <v>170</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" s="5" t="s">
         <v>170</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123" s="5" t="s">
         <v>170</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" s="5" t="s">
         <v>170</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" s="5" t="s">
         <v>210</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" s="5" t="s">
         <v>210</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" s="5" t="s">
         <v>210</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" s="5" t="s">
         <v>210</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" s="5" t="s">
         <v>210</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" s="5" t="s">
         <v>210</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131" s="5" t="s">
         <v>210</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132" s="5" t="s">
         <v>210</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" s="5" t="s">
         <v>210</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" s="5" t="s">
         <v>210</v>
       </c>
